--- a/Wbs.Everdigm.Web/Wbs.Everdigm.Web/files/everdigm.equipment.list.xlsx
+++ b/Wbs.Everdigm.Web/Wbs.Everdigm.Web/files/everdigm.equipment.list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xfeif\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Mongolia\Everdigm\Wbs.Everdigm.Web\Wbs.Everdigm.Web\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,19 +102,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DX500LCA-10040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Electric</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ON</t>
+    <t>Alarm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,8 +110,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,000.00"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm"/>
+    <numFmt numFmtId="178" formatCode="000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -159,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +162,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -181,36 +177,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,116 +584,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="9" style="6"/>
-    <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="14.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="3"/>
+    <col min="6" max="6" width="4.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="1" t="s">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="8" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>1024</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="6">
-        <v>5854.8</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -645,6 +696,8 @@
     <mergeCell ref="K1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>